--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Datamatics Global Services Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Datamatics Global Services Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -692,7 +692,7 @@
         <v>23.83</v>
       </c>
       <c r="I3">
-        <v>2.152941176470588</v>
+        <v>2.15</v>
       </c>
       <c r="J3">
         <v>3.13</v>
@@ -769,7 +769,7 @@
         <v>29.75</v>
       </c>
       <c r="I4">
-        <v>2.152941176470588</v>
+        <v>2.15</v>
       </c>
       <c r="J4">
         <v>3.98</v>
@@ -846,7 +846,7 @@
         <v>37.1</v>
       </c>
       <c r="I5">
-        <v>2.152941176470588</v>
+        <v>2.15</v>
       </c>
       <c r="J5">
         <v>4.38</v>
@@ -1379,7 +1379,7 @@
         <v>196.51</v>
       </c>
       <c r="G12">
-        <v>3.808421052631579</v>
+        <v>3.81</v>
       </c>
       <c r="H12">
         <v>102</v>
@@ -1584,7 +1584,7 @@
         <v>1.77</v>
       </c>
       <c r="X14">
-        <v>0.8741666666666666</v>
+        <v>0.87</v>
       </c>
       <c r="Y14">
         <v>15</v>
@@ -1661,7 +1661,7 @@
         <v>7.37</v>
       </c>
       <c r="X15">
-        <v>0.8741666666666666</v>
+        <v>0.87</v>
       </c>
       <c r="Y15">
         <v>15</v>
@@ -1738,7 +1738,7 @@
         <v>2.46</v>
       </c>
       <c r="X16">
-        <v>0.8741666666666666</v>
+        <v>0.87</v>
       </c>
       <c r="Y16">
         <v>20</v>
@@ -1815,7 +1815,7 @@
         <v>6.89</v>
       </c>
       <c r="X17">
-        <v>0.8741666666666666</v>
+        <v>0.87</v>
       </c>
       <c r="Y17">
         <v>20</v>
@@ -1889,13 +1889,13 @@
         <v>9.550000000000001</v>
       </c>
       <c r="W18">
-        <v>7.736842105263158</v>
+        <v>7.74</v>
       </c>
       <c r="X18">
-        <v>0.8741666666666666</v>
+        <v>0.87</v>
       </c>
       <c r="Y18">
-        <v>34.21052631578947</v>
+        <v>34.21</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1969,7 +1969,7 @@
         <v>14.74</v>
       </c>
       <c r="X19">
-        <v>0.8741666666666666</v>
+        <v>0.87</v>
       </c>
       <c r="Y19">
         <v>75</v>
@@ -2046,7 +2046,7 @@
         <v>7.37</v>
       </c>
       <c r="X20">
-        <v>0.8741666666666666</v>
+        <v>0.87</v>
       </c>
       <c r="Y20">
         <v>100</v>
@@ -2123,7 +2123,7 @@
         <v>29.8</v>
       </c>
       <c r="X21">
-        <v>0.8741666666666666</v>
+        <v>0.87</v>
       </c>
       <c r="Y21">
         <v>100</v>
